--- a/uploads/2022-01-05_340053328_Mohamad Achiruzaman S.ST, M.T (wfh).xlsx
+++ b/uploads/2022-01-05_340053328_Mohamad Achiruzaman S.ST, M.T (wfh).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F30508-C803-498A-8F32-3A9A5E6A5675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laporan Pekerjaan WFH" sheetId="1" r:id="rId1"/>
@@ -132,17 +138,17 @@
     <t>3.5 jam</t>
   </si>
   <si>
-    <t>Rembang, 05/01/2022</t>
+    <t>Rembang, 04/01/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -419,6 +425,21 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="15"/>
     </xf>
@@ -434,24 +455,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Comma [0] 1" xfId="1"/>
+    <cellStyle name="Excel Built-in Comma [0] 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,9 +617,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,6 +669,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -821,35 +861,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="69.1796875" customWidth="1"/>
+    <col min="3" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -858,7 +898,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75">
+    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,7 +909,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
+    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -881,44 +921,44 @@
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <v>44566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24.6" customHeight="1">
-      <c r="A7" s="29" t="s">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -941,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -962,7 +1002,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -983,7 +1023,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1002,7 +1042,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -1013,7 +1053,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
@@ -1022,7 +1062,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1033,72 +1073,78 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="50.1" customHeight="1">
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="27" t="s">
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="23" t="s">
+      <c r="B25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1106,12 +1152,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="85" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
